--- a/secure/26e-Naomi.xlsx
+++ b/secure/26e-Naomi.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Naomi-166520</t>
+    <t>26e-Naomi-816176</t>
   </si>
   <si>
-    <t>26e-Naomi-1009476</t>
+    <t>26e-Naomi-656266</t>
   </si>
   <si>
-    <t>26e-Naomi-785462</t>
+    <t>26e-Naomi-851409</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F22cf46f"/>
+        <fgColor rgb="Fadcd205"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:QH503"/>
+  <dimension ref="A1:WM503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -727,14 +727,11 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>-0.82</v>
       </c>
       <c r="M47" s="4"/>
-      <c r="AC47" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -1582,14 +1579,11 @@
       </c>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>-0.252</v>
       </c>
       <c r="M189" s="4"/>
-      <c r="FM189" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
@@ -1903,11 +1897,14 @@
       </c>
       <c r="M241" s="4"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:377" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>-0.04</v>
       </c>
       <c r="M242" s="4"/>
+      <c r="NM242" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
@@ -1951,14 +1948,11 @@
       </c>
       <c r="M249" s="4"/>
     </row>
-    <row r="250" spans="1:450" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>-0.008</v>
       </c>
       <c r="M250" s="4"/>
-      <c r="QH250" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
@@ -2092,11 +2086,14 @@
       </c>
       <c r="M272" s="4"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>0.084</v>
       </c>
       <c r="M273" s="4"/>
+      <c r="FL273" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
@@ -2200,11 +2197,14 @@
       </c>
       <c r="M290" s="4"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:611" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>0.156</v>
       </c>
       <c r="M291" s="4"/>
+      <c r="WM291" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
